--- a/microservice design.xlsx
+++ b/microservice design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiChen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B38932-F53B-46B7-BD9A-E63A4151264F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8925C8D-F1BD-45E1-83F4-B4E95AA89F61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>E_BUYER</t>
     <phoneticPr fontId="1"/>
@@ -85,14 +85,6 @@
   </si>
   <si>
     <t>db table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DOING</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,15 +107,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,13 +117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,13 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -251,7 +227,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>Auth</a:t>
+            <a:t>Auth Service</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -326,6 +302,11 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>Product</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> Service</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -378,13 +359,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -394,100 +375,43 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>Shopping Cart</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Order service</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>add CartItems, delete CartItems, etc</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add CartItems, delete CartItems, checkout,show purchase history, etc</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180294</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39372C7-E60E-4829-B086-8A0BBF0CF778}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2041071" y="9144001"/>
-          <a:ext cx="4308362" cy="1568222"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>Transactions</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>checkout,show</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> purchase history, etc</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -759,11 +683,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:T35"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -771,85 +693,560 @@
     <col min="23" max="23" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="D1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="S3" s="3"/>
-      <c r="T3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="S4" s="4"/>
-      <c r="T4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="L6" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.4">
-      <c r="L7" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L23" s="1" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L24" s="1" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L25" s="1" t="s">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L26" s="1" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L27" s="1" t="s">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L28" s="1" t="s">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L35" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
